--- a/Documentation/Comparison Sheet.xlsx
+++ b/Documentation/Comparison Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>NetaFim</t>
   </si>
@@ -193,7 +193,43 @@
     <t>no</t>
   </si>
   <si>
-    <t>CatM1 </t>
+    <t>pocket size</t>
+  </si>
+  <si>
+    <t>4g/CatM1 </t>
+  </si>
+  <si>
+    <t>1 or 2 or 3</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>Irrigation Pump</t>
+  </si>
+  <si>
+    <t>Hobo</t>
+  </si>
+  <si>
+    <t>Soil moisture/ temp/ EC</t>
+  </si>
+  <si>
+    <t>6.38x3.38x1.63</t>
+  </si>
+  <si>
+    <t>2x1.5V lithium cell</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>AC grid supply</t>
+  </si>
+  <si>
+    <t>3Vdc</t>
   </si>
 </sst>
 </file>
@@ -261,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,23 +307,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,50 +617,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="11" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -637,35 +682,37 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -697,28 +744,31 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -748,17 +798,14 @@
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>11</v>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -767,17 +814,20 @@
         <v>11</v>
       </c>
       <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>7302</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -802,33 +852,33 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
       </c>
       <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>24</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -853,33 +903,33 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>11</v>
       </c>
       <c r="O7" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>24</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -904,33 +954,33 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
       </c>
       <c r="O8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>24</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1260</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
@@ -943,29 +993,35 @@
         <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N9" t="s">
-        <v>47</v>
+      <c r="K9" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="O9" t="s">
         <v>47</v>
       </c>
       <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -976,45 +1032,97 @@
         <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+        <v>49</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
-        <v>47</v>
+      <c r="N10">
+        <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>47</v>
       </c>
       <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>46</v>
       </c>
       <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="S2:S4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Comparison Sheet.xlsx
+++ b/Documentation/Comparison Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>NetaFim</t>
   </si>
@@ -184,9 +184,6 @@
     <t>online</t>
   </si>
   <si>
-    <t>monitor</t>
-  </si>
-  <si>
     <t>Rugged</t>
   </si>
   <si>
@@ -230,13 +227,154 @@
   </si>
   <si>
     <t>3Vdc</t>
+  </si>
+  <si>
+    <t>AgriTask </t>
+  </si>
+  <si>
+    <t>AgriTask</t>
+  </si>
+  <si>
+    <t>Online </t>
+  </si>
+  <si>
+    <t>Web-based </t>
+  </si>
+  <si>
+    <t>Depend on hardware </t>
+  </si>
+  <si>
+    <t>LoRAWAN </t>
+  </si>
+  <si>
+    <t>CropX</t>
+  </si>
+  <si>
+    <t>3.7VDC </t>
+  </si>
+  <si>
+    <t>Sigfox/3G/4G cellular </t>
+  </si>
+  <si>
+    <t>Up to 5 year </t>
+  </si>
+  <si>
+    <t>   Wifi gate way </t>
+  </si>
+  <si>
+    <t>Sentek </t>
+  </si>
+  <si>
+    <t>Sentek EnviroSCAN</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>SDI-12(digital)</t>
+  </si>
+  <si>
+    <t>9-24vdc</t>
+  </si>
+  <si>
+    <t>Digi WR11 XT </t>
+  </si>
+  <si>
+    <t>10-30vdc</t>
+  </si>
+  <si>
+    <t>Satellite</t>
+  </si>
+  <si>
+    <t>     Yes</t>
+  </si>
+  <si>
+    <t>Varying </t>
+  </si>
+  <si>
+    <t>  WiFi</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Robust/PVC</t>
+  </si>
+  <si>
+    <t>950mm*18mm*</t>
+  </si>
+  <si>
+    <t>2000 </t>
+  </si>
+  <si>
+    <t>    400</t>
+  </si>
+  <si>
+    <t>5.5x3.9x1.4</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Agritask - Crunchbase Company Profile &amp; Funding</t>
+  </si>
+  <si>
+    <t>Hardware - CropX</t>
+  </si>
+  <si>
+    <t>https://sentektechnologies.com/products/soil-data-probes/enviroscan/</t>
+  </si>
+  <si>
+    <t>Valley Irrigation Pump Command</t>
+  </si>
+  <si>
+    <t>HOBOnet TEROS 12 Soil Moisture/Temp/EC Sensor | HOBO Data Loggers Australia</t>
+  </si>
+  <si>
+    <t>Wildeye Device Overview – Wildeye Information (mywildeye.com)</t>
+  </si>
+  <si>
+    <t>NetMCU™ - Smart Irrigation control | Netafim</t>
+  </si>
+  <si>
+    <t>NetRTU™ - Irrigation Control Made Simple | Netafim</t>
+  </si>
+  <si>
+    <t>Image Github Link</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/netmcu.webp</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/netrtu.webp</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/wildeye1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/wildeye2.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/pump-command_navigation.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/hobonet-teros-12-soil-moisturetempec-sensor.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/cropx-soil-sensor.png</t>
+  </si>
+  <si>
+    <t>https://github.com/frenziopen/FrenziTech/blob/main/Hardware/Products/enviroscan_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +396,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +437,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -294,45 +459,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,498 +831,796 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="U2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H3" s="7" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="11">
+        <v>7302</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="1">
+        <v>525</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="1">
+        <v>840</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1260</v>
+      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1601</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="4">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="2">
-        <v>7302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12">
-        <v>690</v>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A1:T1"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="U13" r:id="rId1" display="https://www.crunchbase.com/organization/scantask"/>
+    <hyperlink ref="U14" r:id="rId2" display="https://cropx.com/cropx-system/hardware/"/>
+    <hyperlink ref="U11" r:id="rId3" display="https://www.valleyirrigation.com/pumping-solutions/pump-command"/>
+    <hyperlink ref="U12" r:id="rId4" display="https://www.hobodataloggers.com.au/hobonet-teros-12-soil-moisturetempec-sensor"/>
+    <hyperlink ref="U10" r:id="rId5" display="https://info.mywildeye.com/hc/en-us/articles/4412056172815-Wildeye-Device-Overview"/>
+    <hyperlink ref="U5" r:id="rId6" display="https://www.netafim.com/en/digital-farming/netbeat/Control/netmcu/"/>
+    <hyperlink ref="U6" r:id="rId7" display="https://www.netafim.com/en/digital-farming/netbeat/Control/netrtu/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>